--- a/svigufo/1.bd/arquivo_base.xlsx
+++ b/svigufo/1.bd/arquivo_base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Documents\senai\senai-dev-1s2019\svigufo\1.bd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B81D06-1582-428C-A914-76B30F2B1984}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48F9C56-C3DF-4DBE-B7EF-3B1E4C57C29E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11715" xr2:uid="{E9DDCCEA-61E2-46B0-A7E2-2DC5F399DFAA}"/>
   </bookViews>
@@ -576,7 +576,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
